--- a/outputs/Slight_rate_ranges.xlsx
+++ b/outputs/Slight_rate_ranges.xlsx
@@ -35,10 +35,10 @@
     <t>car/taxi</t>
   </si>
   <si>
-    <t>light goods</t>
-  </si>
-  <si>
-    <t>heavy goods</t>
+    <t>van</t>
+  </si>
+  <si>
+    <t>lorry</t>
   </si>
   <si>
     <t>motorcycle</t>
@@ -121,19 +121,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>214.3508041196927</v>
+        <v>214.31777960481548</v>
       </c>
       <c r="C2" t="n">
-        <v>638.9162789436866</v>
+        <v>638.9451783872703</v>
       </c>
       <c r="D2" t="n">
-        <v>331.40810042989597</v>
+        <v>331.3885125962731</v>
       </c>
       <c r="E2" t="n">
-        <v>607.1791304260619</v>
+        <v>607.1449157297099</v>
       </c>
       <c r="F2" t="n">
-        <v>436.50094428861695</v>
+        <v>436.4832358165396</v>
       </c>
     </row>
     <row r="3">
@@ -141,19 +141,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>138.19004557657354</v>
+        <v>138.1966787110583</v>
       </c>
       <c r="C3" t="n">
-        <v>364.65612002350105</v>
+        <v>364.6010971989825</v>
       </c>
       <c r="D3" t="n">
-        <v>150.1759542603054</v>
+        <v>150.16109911558505</v>
       </c>
       <c r="E3" t="n">
-        <v>261.4076086503615</v>
+        <v>261.4942138345627</v>
       </c>
       <c r="F3" t="n">
-        <v>217.89581570895842</v>
+        <v>217.9080612024744</v>
       </c>
     </row>
     <row r="4">
@@ -161,19 +161,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>283.5300360501726</v>
+        <v>283.5146942183696</v>
       </c>
       <c r="C4" t="n">
-        <v>679.5561890118278</v>
+        <v>679.3605486736628</v>
       </c>
       <c r="D4" t="n">
-        <v>543.0523095866743</v>
+        <v>543.3262013185241</v>
       </c>
       <c r="E4" t="n">
-        <v>750.5778830271714</v>
+        <v>750.6162635086818</v>
       </c>
       <c r="F4" t="n">
-        <v>427.31171624038507</v>
+        <v>427.29645578759727</v>
       </c>
     </row>
     <row r="5">
@@ -181,19 +181,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>361.17634957978566</v>
+        <v>360.6273777192369</v>
       </c>
       <c r="C5" t="n">
-        <v>1102.8870688132472</v>
+        <v>1103.324930059419</v>
       </c>
       <c r="D5" t="n">
-        <v>415.7542988777676</v>
+        <v>415.5254428006067</v>
       </c>
       <c r="E5" t="n">
-        <v>583.7438108328004</v>
+        <v>584.0112549027012</v>
       </c>
       <c r="F5" t="n">
-        <v>614.1225576831037</v>
+        <v>614.1447014387169</v>
       </c>
     </row>
     <row r="6">
@@ -201,19 +201,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>509.4342274180792</v>
+        <v>509.3521487411688</v>
       </c>
       <c r="C6" t="n">
-        <v>1437.097751234</v>
+        <v>1436.8784057543512</v>
       </c>
       <c r="D6" t="n">
-        <v>710.7724279419479</v>
+        <v>710.4373282339527</v>
       </c>
       <c r="E6" t="n">
-        <v>925.9563229199484</v>
+        <v>926.185921531665</v>
       </c>
       <c r="F6" t="n">
-        <v>974.2173069101481</v>
+        <v>974.1933422950077</v>
       </c>
     </row>
     <row r="7">
@@ -221,19 +221,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>397.3739405065746</v>
+        <v>397.05662336552746</v>
       </c>
       <c r="C7" t="n">
-        <v>488.7491435525207</v>
+        <v>488.8778655542294</v>
       </c>
       <c r="D7" t="n">
-        <v>81.99761390444736</v>
+        <v>82.10102837406261</v>
       </c>
       <c r="E7" t="n">
-        <v>134.9555078456496</v>
+        <v>135.03715893124104</v>
       </c>
       <c r="F7" t="n">
-        <v>183.11234977484838</v>
+        <v>183.19321367224197</v>
       </c>
     </row>
   </sheetData>
@@ -272,19 +272,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>214.3511366088824</v>
+        <v>214.30240014513612</v>
       </c>
       <c r="C2" t="n">
-        <v>638.9471574322343</v>
+        <v>638.937421884294</v>
       </c>
       <c r="D2" t="n">
-        <v>331.4076024743156</v>
+        <v>331.4218057423543</v>
       </c>
       <c r="E2" t="n">
-        <v>607.21253581986</v>
+        <v>607.1432738947556</v>
       </c>
       <c r="F2" t="n">
-        <v>436.50194666010344</v>
+        <v>436.4947243747148</v>
       </c>
     </row>
     <row r="3">
@@ -292,19 +292,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>138.20424313913142</v>
+        <v>138.20583524876946</v>
       </c>
       <c r="C3" t="n">
-        <v>364.73122101289135</v>
+        <v>364.53120913817037</v>
       </c>
       <c r="D3" t="n">
-        <v>150.14348046061082</v>
+        <v>150.18227191298385</v>
       </c>
       <c r="E3" t="n">
-        <v>261.3943531716625</v>
+        <v>261.45170738879074</v>
       </c>
       <c r="F3" t="n">
-        <v>217.90049996896062</v>
+        <v>217.93343936691394</v>
       </c>
     </row>
     <row r="4">
@@ -312,19 +312,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>283.5584067130027</v>
+        <v>283.4888259207869</v>
       </c>
       <c r="C4" t="n">
-        <v>679.6705135607581</v>
+        <v>679.3646174154253</v>
       </c>
       <c r="D4" t="n">
-        <v>542.944422530248</v>
+        <v>543.4353134499743</v>
       </c>
       <c r="E4" t="n">
-        <v>750.5367293547641</v>
+        <v>750.6712110099052</v>
       </c>
       <c r="F4" t="n">
-        <v>427.27071839405494</v>
+        <v>427.2069490805154</v>
       </c>
     </row>
     <row r="5">
@@ -332,19 +332,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>361.0632684703378</v>
+        <v>360.3623984911792</v>
       </c>
       <c r="C5" t="n">
-        <v>1103.1118921688303</v>
+        <v>1103.1649008858074</v>
       </c>
       <c r="D5" t="n">
-        <v>415.82449089804584</v>
+        <v>415.70686508434653</v>
       </c>
       <c r="E5" t="n">
-        <v>583.6754420677537</v>
+        <v>583.8774797031305</v>
       </c>
       <c r="F5" t="n">
-        <v>614.1780872655374</v>
+        <v>614.2087336790275</v>
       </c>
     </row>
     <row r="6">
@@ -352,19 +352,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>509.5365212849712</v>
+        <v>509.3291069624893</v>
       </c>
       <c r="C6" t="n">
-        <v>1436.4222919713873</v>
+        <v>1436.6638423720794</v>
       </c>
       <c r="D6" t="n">
-        <v>710.5969255278007</v>
+        <v>710.2785917439717</v>
       </c>
       <c r="E6" t="n">
-        <v>925.816368169322</v>
+        <v>926.052494456649</v>
       </c>
       <c r="F6" t="n">
-        <v>974.3751830954343</v>
+        <v>974.1954027581769</v>
       </c>
     </row>
     <row r="7">
@@ -372,19 +372,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>397.4297617360471</v>
+        <v>396.325913034112</v>
       </c>
       <c r="C7" t="n">
-        <v>488.4455834588114</v>
+        <v>489.2464783732023</v>
       </c>
       <c r="D7" t="n">
-        <v>81.93465873736288</v>
+        <v>82.03531038175575</v>
       </c>
       <c r="E7" t="n">
-        <v>135.04086697673642</v>
+        <v>134.93149175416335</v>
       </c>
       <c r="F7" t="n">
-        <v>183.06868376994834</v>
+        <v>183.17200985829535</v>
       </c>
     </row>
   </sheetData>
@@ -423,19 +423,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>213.60353825861415</v>
+        <v>213.5877002370184</v>
       </c>
       <c r="C2" t="n">
-        <v>637.2000064190308</v>
+        <v>637.149212867032</v>
       </c>
       <c r="D2" t="n">
-        <v>330.0749025060713</v>
+        <v>329.96186030760924</v>
       </c>
       <c r="E2" t="n">
-        <v>605.7226177736198</v>
+        <v>605.8088658943748</v>
       </c>
       <c r="F2" t="n">
-        <v>435.884009779629</v>
+        <v>435.8251929389812</v>
       </c>
     </row>
     <row r="3">
@@ -443,19 +443,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>136.72209818713526</v>
+        <v>136.71415357951696</v>
       </c>
       <c r="C3" t="n">
-        <v>361.3384366098545</v>
+        <v>361.3170977088424</v>
       </c>
       <c r="D3" t="n">
-        <v>148.24411178439013</v>
+        <v>148.0294471194636</v>
       </c>
       <c r="E3" t="n">
-        <v>259.20969691289866</v>
+        <v>259.2340576963696</v>
       </c>
       <c r="F3" t="n">
-        <v>216.83422517897367</v>
+        <v>216.80580474788476</v>
       </c>
     </row>
     <row r="4">
@@ -463,19 +463,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>280.477909883496</v>
+        <v>280.5847867789822</v>
       </c>
       <c r="C4" t="n">
-        <v>670.7404560347298</v>
+        <v>671.4513242055408</v>
       </c>
       <c r="D4" t="n">
-        <v>532.8534851222437</v>
+        <v>532.7062991129617</v>
       </c>
       <c r="E4" t="n">
-        <v>737.8835473337215</v>
+        <v>738.0465510562265</v>
       </c>
       <c r="F4" t="n">
-        <v>424.39007585245815</v>
+        <v>424.4222785333764</v>
       </c>
     </row>
     <row r="5">
@@ -483,19 +483,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>351.7752519083297</v>
+        <v>351.2413704036028</v>
       </c>
       <c r="C5" t="n">
-        <v>1085.7034858268744</v>
+        <v>1085.337838617926</v>
       </c>
       <c r="D5" t="n">
-        <v>403.58768480724785</v>
+        <v>402.67186955908613</v>
       </c>
       <c r="E5" t="n">
-        <v>574.0557891765313</v>
+        <v>574.0758463202367</v>
       </c>
       <c r="F5" t="n">
-        <v>608.1210490691744</v>
+        <v>608.2352707422375</v>
       </c>
     </row>
     <row r="6">
@@ -503,19 +503,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>496.62221911764743</v>
+        <v>495.46173939501153</v>
       </c>
       <c r="C6" t="n">
-        <v>1419.3259264105932</v>
+        <v>1418.8287922613486</v>
       </c>
       <c r="D6" t="n">
-        <v>691.5310082660453</v>
+        <v>690.6617337934758</v>
       </c>
       <c r="E6" t="n">
-        <v>913.2717998202293</v>
+        <v>913.239254216629</v>
       </c>
       <c r="F6" t="n">
-        <v>966.0345025525385</v>
+        <v>966.0762151519489</v>
       </c>
     </row>
     <row r="7">
@@ -523,19 +523,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>370.9509964047565</v>
+        <v>371.72692473143</v>
       </c>
       <c r="C7" t="n">
-        <v>475.54968692982277</v>
+        <v>475.5155771620917</v>
       </c>
       <c r="D7" t="n">
-        <v>77.27032644940358</v>
+        <v>77.20873176738614</v>
       </c>
       <c r="E7" t="n">
-        <v>131.35076078004374</v>
+        <v>131.53826543835544</v>
       </c>
       <c r="F7" t="n">
-        <v>179.8541209493326</v>
+        <v>180.01849139482607</v>
       </c>
     </row>
   </sheetData>
@@ -574,19 +574,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>215.11818411168954</v>
+        <v>215.099269447846</v>
       </c>
       <c r="C2" t="n">
-        <v>640.5096643796742</v>
+        <v>640.6234298643664</v>
       </c>
       <c r="D2" t="n">
-        <v>332.82983200676955</v>
+        <v>332.80915592413913</v>
       </c>
       <c r="E2" t="n">
-        <v>608.5644026584076</v>
+        <v>608.543309498911</v>
       </c>
       <c r="F2" t="n">
-        <v>437.1347295237378</v>
+        <v>437.09055401435575</v>
       </c>
     </row>
     <row r="3">
@@ -594,19 +594,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>139.7349690369126</v>
+        <v>139.59906057851143</v>
       </c>
       <c r="C3" t="n">
-        <v>367.71646350535383</v>
+        <v>367.94837598534957</v>
       </c>
       <c r="D3" t="n">
-        <v>152.1860416851364</v>
+        <v>152.26043422145392</v>
       </c>
       <c r="E3" t="n">
-        <v>263.73291391661076</v>
+        <v>263.78360375640307</v>
       </c>
       <c r="F3" t="n">
-        <v>218.91797545551213</v>
+        <v>219.05869407341174</v>
       </c>
     </row>
     <row r="4">
@@ -614,19 +614,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>286.57322663490737</v>
+        <v>286.40715302207707</v>
       </c>
       <c r="C4" t="n">
-        <v>687.9315593452512</v>
+        <v>687.4978473583653</v>
       </c>
       <c r="D4" t="n">
-        <v>553.444777534771</v>
+        <v>553.39509224174</v>
       </c>
       <c r="E4" t="n">
-        <v>763.1824003692517</v>
+        <v>762.6557965393713</v>
       </c>
       <c r="F4" t="n">
-        <v>430.1449842670083</v>
+        <v>430.17257634243276</v>
       </c>
     </row>
     <row r="5">
@@ -634,19 +634,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>370.89013043654256</v>
+        <v>370.7237132072188</v>
       </c>
       <c r="C5" t="n">
-        <v>1119.9745021200556</v>
+        <v>1120.8918245632008</v>
       </c>
       <c r="D5" t="n">
-        <v>427.9152371140058</v>
+        <v>427.586830477966</v>
       </c>
       <c r="E5" t="n">
-        <v>593.4638876019648</v>
+        <v>594.0410421307307</v>
       </c>
       <c r="F5" t="n">
-        <v>620.3319302964865</v>
+        <v>620.1381167030523</v>
       </c>
     </row>
     <row r="6">
@@ -654,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>522.438211922429</v>
+        <v>522.7541544015965</v>
       </c>
       <c r="C6" t="n">
-        <v>1456.8108809325631</v>
+        <v>1455.0721188216612</v>
       </c>
       <c r="D6" t="n">
-        <v>731.7546811492701</v>
+        <v>730.8828431068968</v>
       </c>
       <c r="E6" t="n">
-        <v>938.476181281892</v>
+        <v>939.1175962597126</v>
       </c>
       <c r="F6" t="n">
-        <v>982.0304779405789</v>
+        <v>982.3682294164986</v>
       </c>
     </row>
     <row r="7">
@@ -674,19 +674,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>424.17359957201126</v>
+        <v>422.7169203097521</v>
       </c>
       <c r="C7" t="n">
-        <v>502.4562707675055</v>
+        <v>501.8421770534145</v>
       </c>
       <c r="D7" t="n">
-        <v>86.41415168757754</v>
+        <v>86.94023474534777</v>
       </c>
       <c r="E7" t="n">
-        <v>138.18254106989315</v>
+        <v>138.71009064804068</v>
       </c>
       <c r="F7" t="n">
-        <v>186.19444168108322</v>
+        <v>186.49148688065318</v>
       </c>
     </row>
   </sheetData>
